--- a/data2/charting-test.xlsx
+++ b/data2/charting-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaox\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaox\WebstormProjects\WinningpPrinter\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA366F-C4F6-4F00-BD43-1C5F7F2C685E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAF69F-C5FB-47CE-ADB1-A1B81E9929D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7815" yWindow="1440" windowWidth="28800" windowHeight="11370" xr2:uid="{E1C0D7DB-FB3F-413E-96ED-FA7177EE239C}"/>
   </bookViews>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C9482C-5F9F-4E57-8267-E2B93596C7B4}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
     <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>123</v>
       </c>
@@ -428,8 +428,11 @@
       <c r="G1">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>37530.354166666664</v>
       </c>
@@ -451,8 +454,12 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(36,42)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>37531.354166608799</v>
       </c>
@@ -474,8 +481,12 @@
       <c r="G3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <f t="shared" ref="H3:H23" ca="1" si="0">RANDBETWEEN(36,42)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>37532.354166608799</v>
       </c>
@@ -497,8 +508,12 @@
       <c r="G4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>37533.354166608799</v>
       </c>
@@ -520,8 +535,12 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>37534.354166608799</v>
       </c>
@@ -543,8 +562,12 @@
       <c r="G6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>37535.354166608799</v>
       </c>
@@ -566,8 +589,12 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>37536.354166608799</v>
       </c>
@@ -589,8 +616,12 @@
       <c r="G8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>37537.354166608799</v>
       </c>
@@ -612,8 +643,12 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>37538.354166608799</v>
       </c>
@@ -635,8 +670,12 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>37539.354166608799</v>
       </c>
@@ -658,8 +697,12 @@
       <c r="G11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>37540.354166608799</v>
       </c>
@@ -681,8 +724,12 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>37541.354166608799</v>
       </c>
@@ -704,8 +751,12 @@
       <c r="G13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>37542.354166608799</v>
       </c>
@@ -727,8 +778,12 @@
       <c r="G14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>37543.354166608799</v>
       </c>
@@ -750,8 +805,12 @@
       <c r="G15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>37544.354166608799</v>
       </c>
@@ -773,8 +832,12 @@
       <c r="G16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>37545.354166608799</v>
       </c>
@@ -796,8 +859,12 @@
       <c r="G17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>37546.354166608799</v>
       </c>
@@ -819,8 +886,12 @@
       <c r="G18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37547.354166608799</v>
       </c>
@@ -842,8 +913,12 @@
       <c r="G19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>37548.354166608799</v>
       </c>
@@ -865,8 +940,12 @@
       <c r="G20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37549.354166608799</v>
       </c>
@@ -888,8 +967,12 @@
       <c r="G21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>37550.354166608799</v>
       </c>
@@ -911,8 +994,12 @@
       <c r="G22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>37551.354166608799</v>
       </c>
@@ -933,6 +1020,10 @@
       </c>
       <c r="G23" t="s">
         <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data2/charting-test.xlsx
+++ b/data2/charting-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miaox\WebstormProjects\WinningpPrinter\data2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BAF69F-C5FB-47CE-ADB1-A1B81E9929D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379A3EA0-F166-40CB-AA97-A1896A5318A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="1440" windowWidth="28800" windowHeight="11370" xr2:uid="{E1C0D7DB-FB3F-413E-96ED-FA7177EE239C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{E1C0D7DB-FB3F-413E-96ED-FA7177EE239C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="1">
   <si>
     <t>面罩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C9482C-5F9F-4E57-8267-E2B93596C7B4}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(36,42)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -482,8 +482,8 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H23" ca="1" si="0">RANDBETWEEN(36,42)</f>
-        <v>40</v>
+        <f t="shared" ref="H3:H66" ca="1" si="0">RANDBETWEEN(36,42)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -510,7 +510,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -537,7 +537,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -564,7 +564,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -645,7 +645,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -780,7 +780,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -888,7 +888,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -915,7 +915,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,7 +1023,2626 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>37552.354166608799</v>
+      </c>
+      <c r="B24">
+        <v>5.5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>5.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>5.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>37553.354166608799</v>
+      </c>
+      <c r="B25">
+        <v>6.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>6.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>6.5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>37554.354166608799</v>
+      </c>
+      <c r="B26">
+        <v>7.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>7.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>7.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>37555.354166608799</v>
+      </c>
+      <c r="B27">
+        <v>8.5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>8.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>37556.354166608799</v>
+      </c>
+      <c r="B28">
+        <v>9.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>9.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>9.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>37557.354166608799</v>
+      </c>
+      <c r="B29">
+        <v>10.5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>10.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>10.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>37558.354166608799</v>
+      </c>
+      <c r="B30">
+        <v>11.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>11.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>11.5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>37559.354166608799</v>
+      </c>
+      <c r="B31">
+        <v>12.5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>12.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>12.5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>37560.354166608799</v>
+      </c>
+      <c r="B32">
+        <v>13.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>37561.354166608799</v>
+      </c>
+      <c r="B33">
+        <v>14.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>14.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>14.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>37562.354166608799</v>
+      </c>
+      <c r="B34">
+        <v>15.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>15.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>15.5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>37563.354166608799</v>
+      </c>
+      <c r="B35">
+        <v>16.5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>16.5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>16.5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>37564.354166608799</v>
+      </c>
+      <c r="B36">
+        <v>17.5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>17.5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>17.5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>37565.354166608799</v>
+      </c>
+      <c r="B37">
+        <v>18.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>18.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>18.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37566.354166608799</v>
+      </c>
+      <c r="B38">
+        <v>19.5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>19.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>19.5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37567.354166608799</v>
+      </c>
+      <c r="B39">
+        <v>20.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>20.5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20.5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>37568.354166608799</v>
+      </c>
+      <c r="B40">
+        <v>21.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>21.5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>21.5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>37569.354166608799</v>
+      </c>
+      <c r="B41">
+        <v>22.5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>22.5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>22.5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>37570.354166608799</v>
+      </c>
+      <c r="B42">
+        <v>23.5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>23.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>23.5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>37571.354166608799</v>
+      </c>
+      <c r="B43">
+        <v>24.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>24.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24.5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>37572.354166608799</v>
+      </c>
+      <c r="B44">
+        <v>25.5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>25.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>25.5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>37573.354166608799</v>
+      </c>
+      <c r="B45">
+        <v>26.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>26.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>26.5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>37574.354166608799</v>
+      </c>
+      <c r="B46">
+        <v>27.5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>27.5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>27.5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>37575.354166608799</v>
+      </c>
+      <c r="B47">
+        <v>28.5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>28.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>28.5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>37576.354166608799</v>
+      </c>
+      <c r="B48">
+        <v>29.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>29.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>29.5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>37577.354166608799</v>
+      </c>
+      <c r="B49">
+        <v>30.5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>30.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>30.5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>37578.354166608799</v>
+      </c>
+      <c r="B50">
+        <v>31.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>31.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>31.5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>37579.354166608799</v>
+      </c>
+      <c r="B51">
+        <v>32.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>32.5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>32.5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>37580.354166608799</v>
+      </c>
+      <c r="B52">
+        <v>33.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>33.5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>33.5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>37581.354166608799</v>
+      </c>
+      <c r="B53">
+        <v>34.5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>34.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>34.5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>37582.354166608799</v>
+      </c>
+      <c r="B54">
+        <v>35.5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>35.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>35.5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>37583.354166608799</v>
+      </c>
+      <c r="B55">
+        <v>36.5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>36.5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>36.5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>37584.354166608799</v>
+      </c>
+      <c r="B56">
+        <v>37.5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>37.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>37.5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>37585.354166608799</v>
+      </c>
+      <c r="B57">
+        <v>38.5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>38.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>38.5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>37586.354166608799</v>
+      </c>
+      <c r="B58">
+        <v>39.5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>39.5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>39.5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>37587.354166608799</v>
+      </c>
+      <c r="B59">
+        <v>40.5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>40.5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>40.5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>37588.354166608799</v>
+      </c>
+      <c r="B60">
+        <v>41.5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>41.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>41.5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>37589.354166608799</v>
+      </c>
+      <c r="B61">
+        <v>42.5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>42.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>42.5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>37590.354166608799</v>
+      </c>
+      <c r="B62">
+        <v>43.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>43.5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>43.5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>37591.354166608799</v>
+      </c>
+      <c r="B63">
+        <v>44.5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>44.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>44.5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>37592.354166608799</v>
+      </c>
+      <c r="B64">
+        <v>45.5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>45.5</v>
+      </c>
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>45.5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>37593.354166608799</v>
+      </c>
+      <c r="B65">
+        <v>46.5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>46.5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>46.5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>37594.354166608799</v>
+      </c>
+      <c r="B66">
+        <v>47.5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>47.5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>47.5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>37595.354166608799</v>
+      </c>
+      <c r="B67">
+        <v>48.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>48.5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>48.5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" ref="H67:H120" ca="1" si="1">RANDBETWEEN(36,42)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>37596.354166608799</v>
+      </c>
+      <c r="B68">
+        <v>49.5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>49.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>49.5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>37597.354166608799</v>
+      </c>
+      <c r="B69">
+        <v>50.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>50.5</v>
+      </c>
+      <c r="E69" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>50.5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>37598.354166608799</v>
+      </c>
+      <c r="B70">
+        <v>51.5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>51.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>51.5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>37599.354166608799</v>
+      </c>
+      <c r="B71">
+        <v>52.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>52.5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>52.5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>37600.354166608799</v>
+      </c>
+      <c r="B72">
+        <v>53.5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>53.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>53.5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>37601.354166608799</v>
+      </c>
+      <c r="B73">
+        <v>54.5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>54.5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>54.5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>37602.354166608799</v>
+      </c>
+      <c r="B74">
+        <v>55.5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>55.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>55.5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>37603.354166608799</v>
+      </c>
+      <c r="B75">
+        <v>56.5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>56.5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>56.5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>37604.354166608799</v>
+      </c>
+      <c r="B76">
+        <v>57.5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>57.5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>57.5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>37605.354166608799</v>
+      </c>
+      <c r="B77">
+        <v>58.5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>58.5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>58.5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>37606.354166608799</v>
+      </c>
+      <c r="B78">
+        <v>59.5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>59.5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>59.5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>37607.354166608799</v>
+      </c>
+      <c r="B79">
+        <v>60.5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>60.5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>60.5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>37608.354166608799</v>
+      </c>
+      <c r="B80">
+        <v>61.5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>61.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>61.5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>37609.354166608799</v>
+      </c>
+      <c r="B81">
+        <v>62.5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>62.5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>62.5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>37610.354166608799</v>
+      </c>
+      <c r="B82">
+        <v>63.5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>63.5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>63.5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>37611.354166608799</v>
+      </c>
+      <c r="B83">
+        <v>64.5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>64.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>64.5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>37612.354166608799</v>
+      </c>
+      <c r="B84">
+        <v>65.5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>65.5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>65.5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>37613.354166608799</v>
+      </c>
+      <c r="B85">
+        <v>66.5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>66.5</v>
+      </c>
+      <c r="E85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>66.5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>37614.354166608799</v>
+      </c>
+      <c r="B86">
+        <v>67.5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>67.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>67.5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>37615.354166608799</v>
+      </c>
+      <c r="B87">
+        <v>68.5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>68.5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>68.5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>37616.354166608799</v>
+      </c>
+      <c r="B88">
+        <v>69.5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>69.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>69.5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>37617.354166608799</v>
+      </c>
+      <c r="B89">
+        <v>70.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>70.5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>70.5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>37618.354166608799</v>
+      </c>
+      <c r="B90">
+        <v>71.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>71.5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>71.5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>37619.354166608799</v>
+      </c>
+      <c r="B91">
+        <v>72.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>72.5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>72.5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>37620.354166608799</v>
+      </c>
+      <c r="B92">
+        <v>73.5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>73.5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>73.5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>37621.354166608799</v>
+      </c>
+      <c r="B93">
+        <v>74.5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>74.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>74.5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>37622.354166608799</v>
+      </c>
+      <c r="B94">
+        <v>75.5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>75.5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>75.5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>37623.354166608799</v>
+      </c>
+      <c r="B95">
+        <v>76.5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>76.5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>76.5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>37624.354166608799</v>
+      </c>
+      <c r="B96">
+        <v>77.5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>77.5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>77.5</v>
+      </c>
+      <c r="G96" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>37625.354166608799</v>
+      </c>
+      <c r="B97">
+        <v>78.5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>78.5</v>
+      </c>
+      <c r="E97" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>78.5</v>
+      </c>
+      <c r="G97" t="s">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>37626.354166608799</v>
+      </c>
+      <c r="B98">
+        <v>79.5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>79.5</v>
+      </c>
+      <c r="E98" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>79.5</v>
+      </c>
+      <c r="G98" t="s">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>37627.354166608799</v>
+      </c>
+      <c r="B99">
+        <v>80.5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>80.5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>80.5</v>
+      </c>
+      <c r="G99" t="s">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>37628.354166608799</v>
+      </c>
+      <c r="B100">
+        <v>81.5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>81.5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>81.5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>37629.354166608799</v>
+      </c>
+      <c r="B101">
+        <v>82.5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>82.5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>82.5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>37630.354166608799</v>
+      </c>
+      <c r="B102">
+        <v>83.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>83.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>83.5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>37631.354166608799</v>
+      </c>
+      <c r="B103">
+        <v>84.5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>84.5</v>
+      </c>
+      <c r="E103" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>84.5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>37632.354166608799</v>
+      </c>
+      <c r="B104">
+        <v>85.5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>85.5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>85.5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>37633.354166608799</v>
+      </c>
+      <c r="B105">
+        <v>86.5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>86.5</v>
+      </c>
+      <c r="E105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>86.5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>37634.354166608799</v>
+      </c>
+      <c r="B106">
+        <v>87.5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>87.5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>87.5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>37635.354166608799</v>
+      </c>
+      <c r="B107">
+        <v>88.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>88.5</v>
+      </c>
+      <c r="E107" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>88.5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>37636.354166608799</v>
+      </c>
+      <c r="B108">
+        <v>89.5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>89.5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>89.5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>37637.354166608799</v>
+      </c>
+      <c r="B109">
+        <v>90.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>90.5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>90.5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>37638.354166608799</v>
+      </c>
+      <c r="B110">
+        <v>91.5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>91.5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>91.5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>37639.354166608799</v>
+      </c>
+      <c r="B111">
+        <v>92.5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>92.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>92.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>37640.354166608799</v>
+      </c>
+      <c r="B112">
+        <v>93.5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>93.5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>93.5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>37641.354166608799</v>
+      </c>
+      <c r="B113">
+        <v>94.5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>94.5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>94.5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>37642.354166608799</v>
+      </c>
+      <c r="B114">
+        <v>95.5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>95.5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>95.5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>37643.354166608799</v>
+      </c>
+      <c r="B115">
+        <v>96.5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>96.5</v>
+      </c>
+      <c r="E115" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>96.5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>37644.354166608799</v>
+      </c>
+      <c r="B116">
+        <v>97.5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>97.5</v>
+      </c>
+      <c r="E116" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>97.5</v>
+      </c>
+      <c r="G116" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>37645.354166608799</v>
+      </c>
+      <c r="B117">
+        <v>98.5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>98.5</v>
+      </c>
+      <c r="E117" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>98.5</v>
+      </c>
+      <c r="G117" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>37646.354166608799</v>
+      </c>
+      <c r="B118">
+        <v>99.5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>99.5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>99.5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>37647.354166608799</v>
+      </c>
+      <c r="B119">
+        <v>100.5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>100.5</v>
+      </c>
+      <c r="E119" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>100.5</v>
+      </c>
+      <c r="G119" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f t="shared" ca="1" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>37648.354166608799</v>
+      </c>
+      <c r="B120">
+        <v>101.5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>101.5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>101.5</v>
+      </c>
+      <c r="G120" t="s">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
